--- a/Examples/paper_port coupling/PortCoupling_SingleSGInfiniteBus.xlsx
+++ b/Examples/paper_port coupling/PortCoupling_SingleSGInfiniteBus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\data for paper_port coupling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\paper_port coupling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0567674-DCC9-44F4-8C1B-39B77B7AC6E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6BED56-C254-4AF3-BC9B-A1D73CBDDFD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -941,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1163,7 +1163,7 @@
         <v>3.5</v>
       </c>
       <c r="D25" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E25" s="2">
         <v>0.3</v>
@@ -1444,7 +1444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
